--- a/planning/data_plan.xlsx
+++ b/planning/data_plan.xlsx
@@ -1,95 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Data Plan</t>
+    <t>Data Plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Group Name/Number:</t>
+    <t>Group Name/Number:</t>
   </si>
   <si>
-    <t xml:space="preserve">Feature/Interaction</t>
+    <t>survival</t>
   </si>
   <si>
-    <t xml:space="preserve">Purpose/Description</t>
+    <t>Feature/Interaction</t>
   </si>
   <si>
-    <t xml:space="preserve">Request Data Source</t>
+    <t>Purpose/Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Request sent to server</t>
+    <t>Request Data Source</t>
+  </si>
+  <si>
+    <t>Request sent to server</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Processing Needed/</t>
+      <t>Processing Needed/</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Response Data Source</t>
+      <t>Response Data Source</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Response sent to client</t>
+    <t>Response sent to client</t>
   </si>
   <si>
-    <t xml:space="preserve">Request Type &amp; Path</t>
+    <t>Request Type &amp; Path</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Notes</t>
+    <t>Other Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurant Search</t>
+    <t>Restaurant Search</t>
   </si>
   <si>
-    <t xml:space="preserve">This is an example of an entry in a data plan for a restaurant booking system.
+    <t>This is an example of an entry in a data plan for a restaurant booking system.
 Users can search for restaurants and have the most relevant search results displayed.</t>
   </si>
   <si>
-    <t xml:space="preserve">A search bar/text input on the main search page</t>
+    <t>A search bar/text input on the main search page</t>
   </si>
   <si>
-    <t xml:space="preserve">JSON formatted AJAX request containing the search term:
+    <t>JSON formatted AJAX request containing the search term:
 { 
     "query": "[the search bar contents]"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Find all restaurants in database whose names, locations, or cuisines match the search term.</t>
+    <t>Find all restaurants in database whose names, locations, or cuisines match the search term.</t>
   </si>
   <si>
-    <t xml:space="preserve">JSON formatted AJAX response containing the the restaurant details:
+    <t>JSON formatted AJAX response containing the the restaurant details:
 [
     { 
         "id": "restaurant id",
@@ -101,11 +96,11 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">POST Request
+    <t>POST Request
 /restaurants</t>
   </si>
   <si>
-    <t xml:space="preserve">This same request could be achieved with a GET request via URL parameters, so when writing these yourself use your discretion.
+    <t>This same request could be achieved with a GET request via URL parameters, so when writing these yourself use your discretion.
 By using a POST request with JSON body we can easily expand to additional fields like location or date range.</t>
   </si>
 </sst>
@@ -113,78 +108,210 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2F4F4F"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2F4F4F"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,289 +330,1000 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="13">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDCDCDC"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF2F4F4F"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DCDCDC"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="002F4F4F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="61.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col min="1" max="1" width="25.9821428571429" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.1517857142857" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.5892857142857" style="4" customWidth="1"/>
+    <col min="4" max="4" width="61.2678571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.4196428571429" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.2678571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.1964285714286" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="1024" width="11.5178571428571" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="35" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" s="2" customFormat="1" ht="16" spans="1:8">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="4" s="3" customFormat="1" ht="140" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -495,7 +1333,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="1" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -505,7 +1343,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="1" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -515,7 +1353,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="3" customFormat="1" spans="1:8">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -525,7 +1363,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="3" customFormat="1" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -535,7 +1373,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="1" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -545,7 +1383,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="1" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -555,7 +1393,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="3" customFormat="1" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -565,7 +1403,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="3" customFormat="1" spans="1:8">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -575,7 +1413,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="3" customFormat="1" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -585,7 +1423,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="3" customFormat="1" spans="1:8">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -595,7 +1433,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="3" customFormat="1" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -605,7 +1443,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="3" customFormat="1" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -615,7 +1453,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="3" customFormat="1" spans="1:8">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -625,7 +1463,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="3" customFormat="1" spans="1:8">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -635,7 +1473,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="3" customFormat="1" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -645,7 +1483,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="3" customFormat="1" spans="1:8">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -655,7 +1493,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="3" customFormat="1" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -665,7 +1503,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="3" customFormat="1" spans="1:8">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -675,7 +1513,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="3" customFormat="1" spans="1:8">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -685,7 +1523,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="3" customFormat="1" spans="1:8">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -695,7 +1533,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="3" customFormat="1" spans="1:8">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -705,7 +1543,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="3" customFormat="1" spans="1:8">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -715,7 +1553,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="3" customFormat="1" spans="1:8">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -725,7 +1563,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="3" customFormat="1" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -735,7 +1573,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="3" customFormat="1" spans="1:8">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -745,7 +1583,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="3" customFormat="1" spans="1:8">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -755,7 +1593,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="3" customFormat="1" spans="1:8">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -765,7 +1603,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="3" customFormat="1" spans="1:8">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -775,7 +1613,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="3" customFormat="1" spans="1:8">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -785,7 +1623,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="3" customFormat="1" spans="1:8">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -795,7 +1633,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="3" customFormat="1" spans="1:8">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -805,7 +1643,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="3" customFormat="1" spans="1:8">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -815,7 +1653,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="3" customFormat="1" spans="1:8">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -825,7 +1663,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="3" customFormat="1" spans="1:8">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -835,7 +1673,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="3" customFormat="1" spans="1:8">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -845,7 +1683,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="3" customFormat="1" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -855,7 +1693,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="3" customFormat="1" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -865,7 +1703,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="3" customFormat="1" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -875,7 +1713,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="3" customFormat="1" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -885,7 +1723,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="3" customFormat="1" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -895,7 +1733,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="3" customFormat="1" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -905,7 +1743,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="3" customFormat="1" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -915,7 +1753,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="3" customFormat="1" spans="1:8">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -925,7 +1763,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="3" customFormat="1" spans="1:8">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -935,7 +1773,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="3" customFormat="1" spans="1:8">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -945,7 +1783,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="3" customFormat="1" spans="1:8">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -955,7 +1793,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="3" customFormat="1" spans="1:8">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -965,7 +1803,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="3" customFormat="1" spans="1:8">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -975,7 +1813,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="3" customFormat="1" spans="1:8">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -985,7 +1823,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="3" customFormat="1" spans="1:8">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -995,7 +1833,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="3" customFormat="1" spans="1:8">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1005,7 +1843,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="3" customFormat="1" spans="1:8">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1015,7 +1853,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="3" customFormat="1" spans="1:8">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1025,7 +1863,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="3" customFormat="1" spans="1:8">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1035,7 +1873,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="3" customFormat="1" spans="1:8">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1045,7 +1883,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="3" customFormat="1" spans="1:8">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1055,7 +1893,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="3" customFormat="1" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -1066,10 +1904,9 @@
       <c r="H62" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
